--- a/data/03008.xlsx
+++ b/data/03008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10989,6 +10989,43 @@
         </is>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>03008</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>SLIC</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
